--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Jag1-Notch4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Jag1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.0114811187287</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H2">
-        <v>18.0114811187287</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I2">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J2">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.2873121431529</v>
+        <v>47.253984</v>
       </c>
       <c r="N2">
-        <v>46.2873121431529</v>
+        <v>141.761952</v>
       </c>
       <c r="O2">
-        <v>0.9049426252434795</v>
+        <v>0.8884015114449556</v>
       </c>
       <c r="P2">
-        <v>0.9049426252434795</v>
+        <v>0.8884015114449555</v>
       </c>
       <c r="Q2">
-        <v>833.7030487031002</v>
+        <v>887.5565232024322</v>
       </c>
       <c r="R2">
-        <v>833.7030487031002</v>
+        <v>7988.00870882189</v>
       </c>
       <c r="S2">
-        <v>0.259112409756621</v>
+        <v>0.2546860643786636</v>
       </c>
       <c r="T2">
-        <v>0.259112409756621</v>
+        <v>0.2546860643786635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.0114811187287</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H3">
-        <v>18.0114811187287</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I3">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J3">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.82043266310992</v>
+        <v>4.022517333333333</v>
       </c>
       <c r="N3">
-        <v>3.82043266310992</v>
+        <v>12.067552</v>
       </c>
       <c r="O3">
-        <v>0.07469157753270081</v>
+        <v>0.07562559124637756</v>
       </c>
       <c r="P3">
-        <v>0.07469157753270081</v>
+        <v>0.07562559124637755</v>
       </c>
       <c r="Q3">
-        <v>68.81165077697872</v>
+        <v>75.55366122980979</v>
       </c>
       <c r="R3">
-        <v>68.81165077697872</v>
+        <v>679.982951068288</v>
       </c>
       <c r="S3">
-        <v>0.02138645490128663</v>
+        <v>0.02168026950958513</v>
       </c>
       <c r="T3">
-        <v>0.02138645490128663</v>
+        <v>0.02168026950958512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.0114811187287</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H4">
-        <v>18.0114811187287</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I4">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J4">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.729705316449215</v>
+        <v>0.7893206666666668</v>
       </c>
       <c r="N4">
-        <v>0.729705316449215</v>
+        <v>2.367962</v>
       </c>
       <c r="O4">
-        <v>0.01426614366112763</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="P4">
-        <v>0.01426614366112763</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="Q4">
-        <v>13.14307352946099</v>
+        <v>14.82555855181423</v>
       </c>
       <c r="R4">
-        <v>13.14307352946099</v>
+        <v>133.430026966328</v>
       </c>
       <c r="S4">
-        <v>0.004084827876214087</v>
+        <v>0.004254222757727186</v>
       </c>
       <c r="T4">
-        <v>0.004084827876214087</v>
+        <v>0.004254222757727185</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.0114811187287</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H5">
-        <v>18.0114811187287</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I5">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J5">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.311993888392052</v>
+        <v>0.803095</v>
       </c>
       <c r="N5">
-        <v>0.311993888392052</v>
+        <v>2.409285</v>
       </c>
       <c r="O5">
-        <v>0.006099653562692117</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="P5">
-        <v>0.006099653562692117</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="Q5">
-        <v>5.619472029932194</v>
+        <v>15.08427746539334</v>
       </c>
       <c r="R5">
-        <v>5.619472029932194</v>
+        <v>135.75849718854</v>
       </c>
       <c r="S5">
-        <v>0.001746515070924494</v>
+        <v>0.004328462651364651</v>
       </c>
       <c r="T5">
-        <v>0.001746515070924494</v>
+        <v>0.004328462651364651</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.3410381817782</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H6">
-        <v>14.3410381817782</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I6">
-        <v>0.2279808313815271</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J6">
-        <v>0.2279808313815271</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.2873121431529</v>
+        <v>0.320979</v>
       </c>
       <c r="N6">
-        <v>46.2873121431529</v>
+        <v>0.9629369999999999</v>
       </c>
       <c r="O6">
-        <v>0.9049426252434795</v>
+        <v>0.006034585967229564</v>
       </c>
       <c r="P6">
-        <v>0.9049426252434795</v>
+        <v>0.006034585967229563</v>
       </c>
       <c r="Q6">
-        <v>663.8081107768415</v>
+        <v>6.028846271692</v>
       </c>
       <c r="R6">
-        <v>663.8081107768415</v>
+        <v>54.259616445228</v>
       </c>
       <c r="S6">
-        <v>0.2063095720555902</v>
+        <v>0.001729989121302429</v>
       </c>
       <c r="T6">
-        <v>0.2063095720555902</v>
+        <v>0.001729989121302429</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.3410381817782</v>
+        <v>14.452944</v>
       </c>
       <c r="H7">
-        <v>14.3410381817782</v>
+        <v>43.358832</v>
       </c>
       <c r="I7">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J7">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.82043266310992</v>
+        <v>47.253984</v>
       </c>
       <c r="N7">
-        <v>3.82043266310992</v>
+        <v>141.761952</v>
       </c>
       <c r="O7">
-        <v>0.07469157753270081</v>
+        <v>0.8884015114449556</v>
       </c>
       <c r="P7">
-        <v>0.07469157753270081</v>
+        <v>0.8884015114449555</v>
       </c>
       <c r="Q7">
-        <v>54.78897069257194</v>
+        <v>682.9591845288961</v>
       </c>
       <c r="R7">
-        <v>54.78897069257194</v>
+        <v>6146.632660760064</v>
       </c>
       <c r="S7">
-        <v>0.01702824794310292</v>
+        <v>0.1959764615455979</v>
       </c>
       <c r="T7">
-        <v>0.01702824794310292</v>
+        <v>0.1959764615455978</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.3410381817782</v>
+        <v>14.452944</v>
       </c>
       <c r="H8">
-        <v>14.3410381817782</v>
+        <v>43.358832</v>
       </c>
       <c r="I8">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J8">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.729705316449215</v>
+        <v>4.022517333333333</v>
       </c>
       <c r="N8">
-        <v>0.729705316449215</v>
+        <v>12.067552</v>
       </c>
       <c r="O8">
-        <v>0.01426614366112763</v>
+        <v>0.07562559124637756</v>
       </c>
       <c r="P8">
-        <v>0.01426614366112763</v>
+        <v>0.07562559124637755</v>
       </c>
       <c r="Q8">
-        <v>10.46473180464474</v>
+        <v>58.137217757696</v>
       </c>
       <c r="R8">
-        <v>10.46473180464474</v>
+        <v>523.234959819264</v>
       </c>
       <c r="S8">
-        <v>0.003252407292472179</v>
+        <v>0.01668258730295631</v>
       </c>
       <c r="T8">
-        <v>0.003252407292472179</v>
+        <v>0.01668258730295631</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.3410381817782</v>
+        <v>14.452944</v>
       </c>
       <c r="H9">
-        <v>14.3410381817782</v>
+        <v>43.358832</v>
       </c>
       <c r="I9">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J9">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.311993888392052</v>
+        <v>0.7893206666666668</v>
       </c>
       <c r="N9">
-        <v>0.311993888392052</v>
+        <v>2.367962</v>
       </c>
       <c r="O9">
-        <v>0.006099653562692117</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="P9">
-        <v>0.006099653562692117</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="Q9">
-        <v>4.474316265911864</v>
+        <v>11.408007393376</v>
       </c>
       <c r="R9">
-        <v>4.474316265911864</v>
+        <v>102.672066540384</v>
       </c>
       <c r="S9">
-        <v>0.001390604090361843</v>
+        <v>0.003273549829748655</v>
       </c>
       <c r="T9">
-        <v>0.001390604090361843</v>
+        <v>0.003273549829748654</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.8087334511057</v>
+        <v>14.452944</v>
       </c>
       <c r="H10">
-        <v>19.8087334511057</v>
+        <v>43.358832</v>
       </c>
       <c r="I10">
-        <v>0.3149012967928788</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J10">
-        <v>0.3149012967928788</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>46.2873121431529</v>
+        <v>0.803095</v>
       </c>
       <c r="N10">
-        <v>46.2873121431529</v>
+        <v>2.409285</v>
       </c>
       <c r="O10">
-        <v>0.9049426252434795</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="P10">
-        <v>0.9049426252434795</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="Q10">
-        <v>916.8930284118439</v>
+        <v>11.60708706168</v>
       </c>
       <c r="R10">
-        <v>916.8930284118439</v>
+        <v>104.46378355512</v>
       </c>
       <c r="S10">
-        <v>0.2849676062123238</v>
+        <v>0.003330676126376178</v>
       </c>
       <c r="T10">
-        <v>0.2849676062123238</v>
+        <v>0.003330676126376178</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.8087334511057</v>
+        <v>14.452944</v>
       </c>
       <c r="H11">
-        <v>19.8087334511057</v>
+        <v>43.358832</v>
       </c>
       <c r="I11">
-        <v>0.3149012967928788</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J11">
-        <v>0.3149012967928788</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.82043266310992</v>
+        <v>0.320979</v>
       </c>
       <c r="N11">
-        <v>3.82043266310992</v>
+        <v>0.9629369999999999</v>
       </c>
       <c r="O11">
-        <v>0.07469157753270081</v>
+        <v>0.006034585967229564</v>
       </c>
       <c r="P11">
-        <v>0.07469157753270081</v>
+        <v>0.006034585967229563</v>
       </c>
       <c r="Q11">
-        <v>75.6779322914423</v>
+        <v>4.639091512176</v>
       </c>
       <c r="R11">
-        <v>75.6779322914423</v>
+        <v>41.75182360958399</v>
       </c>
       <c r="S11">
-        <v>0.02352047462455333</v>
+        <v>0.001331196299775368</v>
       </c>
       <c r="T11">
-        <v>0.02352047462455333</v>
+        <v>0.001331196299775368</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.8087334511057</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H12">
-        <v>19.8087334511057</v>
+        <v>60.073375</v>
       </c>
       <c r="I12">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J12">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.729705316449215</v>
+        <v>47.253984</v>
       </c>
       <c r="N12">
-        <v>0.729705316449215</v>
+        <v>141.761952</v>
       </c>
       <c r="O12">
-        <v>0.01426614366112763</v>
+        <v>0.8884015114449556</v>
       </c>
       <c r="P12">
-        <v>0.01426614366112763</v>
+        <v>0.8884015114449555</v>
       </c>
       <c r="Q12">
-        <v>14.45453811139723</v>
+        <v>946.235433692</v>
       </c>
       <c r="R12">
-        <v>14.45453811139723</v>
+        <v>8516.118903228</v>
       </c>
       <c r="S12">
-        <v>0.004492427139122596</v>
+        <v>0.2715240914608073</v>
       </c>
       <c r="T12">
-        <v>0.004492427139122596</v>
+        <v>0.2715240914608073</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.8087334511057</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H13">
-        <v>19.8087334511057</v>
+        <v>60.073375</v>
       </c>
       <c r="I13">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J13">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.311993888392052</v>
+        <v>4.022517333333333</v>
       </c>
       <c r="N13">
-        <v>0.311993888392052</v>
+        <v>12.067552</v>
       </c>
       <c r="O13">
-        <v>0.006099653562692117</v>
+        <v>0.07562559124637756</v>
       </c>
       <c r="P13">
-        <v>0.006099653562692117</v>
+        <v>0.07562559124637755</v>
       </c>
       <c r="Q13">
-        <v>6.180203773532178</v>
+        <v>80.54873073644443</v>
       </c>
       <c r="R13">
-        <v>6.180203773532178</v>
+        <v>724.938576628</v>
       </c>
       <c r="S13">
-        <v>0.001920788816879051</v>
+        <v>0.02311361438474019</v>
       </c>
       <c r="T13">
-        <v>0.001920788816879051</v>
+        <v>0.02311361438474019</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.49237852041392</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H14">
-        <v>5.49237852041392</v>
+        <v>60.073375</v>
       </c>
       <c r="I14">
-        <v>0.0873128573729763</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J14">
-        <v>0.0873128573729763</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.2873121431529</v>
+        <v>0.7893206666666668</v>
       </c>
       <c r="N14">
-        <v>46.2873121431529</v>
+        <v>2.367962</v>
       </c>
       <c r="O14">
-        <v>0.9049426252434795</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="P14">
-        <v>0.9049426252434795</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="Q14">
-        <v>254.2274389827474</v>
+        <v>15.80571880130556</v>
       </c>
       <c r="R14">
-        <v>254.2274389827474</v>
+        <v>142.25146921175</v>
       </c>
       <c r="S14">
-        <v>0.07901312636861066</v>
+        <v>0.004535481640826421</v>
       </c>
       <c r="T14">
-        <v>0.07901312636861066</v>
+        <v>0.00453548164082642</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.49237852041392</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H15">
-        <v>5.49237852041392</v>
+        <v>60.073375</v>
       </c>
       <c r="I15">
-        <v>0.0873128573729763</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J15">
-        <v>0.0873128573729763</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>3.82043266310992</v>
+        <v>0.803095</v>
       </c>
       <c r="N15">
-        <v>3.82043266310992</v>
+        <v>2.409285</v>
       </c>
       <c r="O15">
-        <v>0.07469157753270081</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="P15">
-        <v>0.07469157753270081</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="Q15">
-        <v>20.98326229755268</v>
+        <v>16.08154236520833</v>
       </c>
       <c r="R15">
-        <v>20.98326229755268</v>
+        <v>144.733881286875</v>
       </c>
       <c r="S15">
-        <v>0.006521535056075307</v>
+        <v>0.004614629747022325</v>
       </c>
       <c r="T15">
-        <v>0.006521535056075307</v>
+        <v>0.004614629747022325</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.49237852041392</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H16">
-        <v>5.49237852041392</v>
+        <v>60.073375</v>
       </c>
       <c r="I16">
-        <v>0.0873128573729763</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J16">
-        <v>0.0873128573729763</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.729705316449215</v>
+        <v>0.320979</v>
       </c>
       <c r="N16">
-        <v>0.729705316449215</v>
+        <v>0.9629369999999999</v>
       </c>
       <c r="O16">
-        <v>0.01426614366112763</v>
+        <v>0.006034585967229564</v>
       </c>
       <c r="P16">
-        <v>0.01426614366112763</v>
+        <v>0.006034585967229563</v>
       </c>
       <c r="Q16">
-        <v>4.007817806297511</v>
+        <v>6.427430611374999</v>
       </c>
       <c r="R16">
-        <v>4.007817806297511</v>
+        <v>57.84687550237499</v>
       </c>
       <c r="S16">
-        <v>0.001245617766746426</v>
+        <v>0.001844363670013484</v>
       </c>
       <c r="T16">
-        <v>0.001245617766746426</v>
+        <v>0.001844363670013484</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.49237852041392</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H17">
-        <v>5.49237852041392</v>
+        <v>20.331953</v>
       </c>
       <c r="I17">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J17">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.311993888392052</v>
+        <v>47.253984</v>
       </c>
       <c r="N17">
-        <v>0.311993888392052</v>
+        <v>141.761952</v>
       </c>
       <c r="O17">
-        <v>0.006099653562692117</v>
+        <v>0.8884015114449556</v>
       </c>
       <c r="P17">
-        <v>0.006099653562692117</v>
+        <v>0.8884015114449555</v>
       </c>
       <c r="Q17">
-        <v>1.713588531104924</v>
+        <v>320.255260583584</v>
       </c>
       <c r="R17">
-        <v>1.713588531104924</v>
+        <v>2882.297345252256</v>
       </c>
       <c r="S17">
-        <v>0.0005325781815439035</v>
+        <v>0.0918978676651484</v>
       </c>
       <c r="T17">
-        <v>0.0005325781815439035</v>
+        <v>0.0918978676651484</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.25094756854451</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H18">
-        <v>5.25094756854451</v>
+        <v>20.331953</v>
       </c>
       <c r="I18">
-        <v>0.08347480684757166</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J18">
-        <v>0.08347480684757166</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>46.2873121431529</v>
+        <v>4.022517333333333</v>
       </c>
       <c r="N18">
-        <v>46.2873121431529</v>
+        <v>12.067552</v>
       </c>
       <c r="O18">
-        <v>0.9049426252434795</v>
+        <v>0.07562559124637756</v>
       </c>
       <c r="P18">
-        <v>0.9049426252434795</v>
+        <v>0.07562559124637755</v>
       </c>
       <c r="Q18">
-        <v>243.0522491525495</v>
+        <v>27.26187778767288</v>
       </c>
       <c r="R18">
-        <v>243.0522491525495</v>
+        <v>245.356900089056</v>
       </c>
       <c r="S18">
-        <v>0.07553991085033387</v>
+        <v>0.007822848663499618</v>
       </c>
       <c r="T18">
-        <v>0.07553991085033387</v>
+        <v>0.007822848663499617</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.25094756854451</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H19">
-        <v>5.25094756854451</v>
+        <v>20.331953</v>
       </c>
       <c r="I19">
-        <v>0.08347480684757166</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J19">
-        <v>0.08347480684757166</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.82043266310992</v>
+        <v>0.7893206666666668</v>
       </c>
       <c r="N19">
-        <v>3.82043266310992</v>
+        <v>2.367962</v>
       </c>
       <c r="O19">
-        <v>0.07469157753270081</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="P19">
-        <v>0.07469157753270081</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="Q19">
-        <v>20.06089160314506</v>
+        <v>5.349476898865111</v>
       </c>
       <c r="R19">
-        <v>20.06089160314506</v>
+        <v>48.145292089786</v>
       </c>
       <c r="S19">
-        <v>0.006234865007682624</v>
+        <v>0.00153504276318162</v>
       </c>
       <c r="T19">
-        <v>0.006234865007682624</v>
+        <v>0.00153504276318162</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.25094756854451</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H20">
-        <v>5.25094756854451</v>
+        <v>20.331953</v>
       </c>
       <c r="I20">
-        <v>0.08347480684757166</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J20">
-        <v>0.08347480684757166</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.729705316449215</v>
+        <v>0.803095</v>
       </c>
       <c r="N20">
-        <v>0.729705316449215</v>
+        <v>2.409285</v>
       </c>
       <c r="O20">
-        <v>0.01426614366112763</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="P20">
-        <v>0.01426614366112763</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="Q20">
-        <v>3.831644357163008</v>
+        <v>5.442829931511666</v>
       </c>
       <c r="R20">
-        <v>3.831644357163008</v>
+        <v>48.985469383605</v>
       </c>
       <c r="S20">
-        <v>0.001190863586572337</v>
+        <v>0.001561830596813643</v>
       </c>
       <c r="T20">
-        <v>0.001190863586572337</v>
+        <v>0.001561830596813643</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.25094756854451</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H21">
-        <v>5.25094756854451</v>
+        <v>20.331953</v>
       </c>
       <c r="I21">
-        <v>0.08347480684757166</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J21">
-        <v>0.08347480684757166</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.311993888392052</v>
+        <v>0.320979</v>
       </c>
       <c r="N21">
-        <v>0.311993888392052</v>
+        <v>0.9629369999999999</v>
       </c>
       <c r="O21">
-        <v>0.006099653562692117</v>
+        <v>0.006034585967229564</v>
       </c>
       <c r="P21">
-        <v>0.006099653562692117</v>
+        <v>0.006034585967229563</v>
       </c>
       <c r="Q21">
-        <v>1.638263549652993</v>
+        <v>2.175376647328999</v>
       </c>
       <c r="R21">
-        <v>1.638263549652993</v>
+        <v>19.578389825961</v>
       </c>
       <c r="S21">
-        <v>0.0005091674029828268</v>
+        <v>0.0006242285447358611</v>
       </c>
       <c r="T21">
-        <v>0.0005091674029828268</v>
+        <v>0.0006242285447358611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.480759333333334</v>
+      </c>
+      <c r="H22">
+        <v>16.442278</v>
+      </c>
+      <c r="I22">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="J22">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>47.253984</v>
+      </c>
+      <c r="N22">
+        <v>141.761952</v>
+      </c>
+      <c r="O22">
+        <v>0.8884015114449556</v>
+      </c>
+      <c r="P22">
+        <v>0.8884015114449555</v>
+      </c>
+      <c r="Q22">
+        <v>258.987713845184</v>
+      </c>
+      <c r="R22">
+        <v>2330.889424606657</v>
+      </c>
+      <c r="S22">
+        <v>0.07431702639473844</v>
+      </c>
+      <c r="T22">
+        <v>0.07431702639473843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.480759333333334</v>
+      </c>
+      <c r="H23">
+        <v>16.442278</v>
+      </c>
+      <c r="I23">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="J23">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.022517333333333</v>
+      </c>
+      <c r="N23">
+        <v>12.067552</v>
+      </c>
+      <c r="O23">
+        <v>0.07562559124637756</v>
+      </c>
+      <c r="P23">
+        <v>0.07562559124637755</v>
+      </c>
+      <c r="Q23">
+        <v>22.04644941816178</v>
+      </c>
+      <c r="R23">
+        <v>198.418044763456</v>
+      </c>
+      <c r="S23">
+        <v>0.006326271385596318</v>
+      </c>
+      <c r="T23">
+        <v>0.006326271385596317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.480759333333334</v>
+      </c>
+      <c r="H24">
+        <v>16.442278</v>
+      </c>
+      <c r="I24">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="J24">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7893206666666668</v>
+      </c>
+      <c r="N24">
+        <v>2.367962</v>
+      </c>
+      <c r="O24">
+        <v>0.01483967305870774</v>
+      </c>
+      <c r="P24">
+        <v>0.01483967305870774</v>
+      </c>
+      <c r="Q24">
+        <v>4.326076610826224</v>
+      </c>
+      <c r="R24">
+        <v>38.93468949743601</v>
+      </c>
+      <c r="S24">
+        <v>0.00124137606722386</v>
+      </c>
+      <c r="T24">
+        <v>0.00124137606722386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.480759333333334</v>
+      </c>
+      <c r="H25">
+        <v>16.442278</v>
+      </c>
+      <c r="I25">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="J25">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.803095</v>
+      </c>
+      <c r="N25">
+        <v>2.409285</v>
+      </c>
+      <c r="O25">
+        <v>0.01509863828272948</v>
+      </c>
+      <c r="P25">
+        <v>0.01509863828272948</v>
+      </c>
+      <c r="Q25">
+        <v>4.401570416803334</v>
+      </c>
+      <c r="R25">
+        <v>39.61413375123001</v>
+      </c>
+      <c r="S25">
+        <v>0.001263039161152687</v>
+      </c>
+      <c r="T25">
+        <v>0.001263039161152686</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.480759333333334</v>
+      </c>
+      <c r="H26">
+        <v>16.442278</v>
+      </c>
+      <c r="I26">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="J26">
+        <v>0.08365252134011374</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.320979</v>
+      </c>
+      <c r="N26">
+        <v>0.9629369999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.006034585967229564</v>
+      </c>
+      <c r="P26">
+        <v>0.006034585967229563</v>
+      </c>
+      <c r="Q26">
+        <v>1.759208650054</v>
+      </c>
+      <c r="R26">
+        <v>15.832877850486</v>
+      </c>
+      <c r="S26">
+        <v>0.000504808331402422</v>
+      </c>
+      <c r="T26">
+        <v>0.0005048083314024219</v>
       </c>
     </row>
   </sheetData>
